--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFF3CD"/>
         <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,27 +537,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7423</v>
+        <v>11732</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8395</v>
+        <v>15701</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-972</v>
+        <v>-3969</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +570,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,27 +582,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8459</v>
+        <v>8165</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8879</v>
+        <v>8821</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-420</v>
+        <v>-656</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -622,7 +613,7 @@
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -636,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>11810</v>
+        <v>9211</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15772</v>
+        <v>10018</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-3962</v>
+        <v>-807</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -669,7 +660,7 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -681,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +686,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>8256</v>
+        <v>7200</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8879</v>
+        <v>7497</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-623</v>
+        <v>-297</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,7 +703,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,27 +717,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9287</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9478</v>
+        <v>7497</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-191</v>
+        <v>-297</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,7 +748,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +776,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7280</v>
+        <v>7200</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7554</v>
+        <v>7497</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-274</v>
+        <v>-297</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -802,7 +793,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +821,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7280</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7554</v>
+        <v>7497</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-274</v>
+        <v>-297</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,102 +838,12 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>25-FEB-26</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>SM-447</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>7280</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>7554</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-274</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-243</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>16460</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>21734</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-5274</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7658</v>
+        <v>13655</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8339</v>
+        <v>15695</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-681</v>
+        <v>-2040</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -618,27 +618,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7198</v>
+        <v>7658</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7495</v>
+        <v>8339</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-297</v>
+        <v>-681</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -680,10 +680,10 @@
         <v>7198</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7495</v>
+        <v>7923</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-297</v>
+        <v>-725</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -708,27 +708,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>16376</v>
+        <v>7198</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>18139</v>
+        <v>7495</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1763</v>
+        <v>-297</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -753,27 +753,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8389</v>
+        <v>7198</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>8817</v>
+        <v>7495</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-428</v>
+        <v>-297</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -790,6 +790,96 @@
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>28-MAR-26</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>SM-443</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-243</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>16376</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>18139</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-1763</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>SM-443</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-143</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>8389</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>8817</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-428</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -54,8 +54,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,27 +537,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17615</v>
+        <v>9248</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>18063</v>
+        <v>10083</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-448</v>
+        <v>-835</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,27 +582,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>16304</v>
+        <v>7229</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>18063</v>
+        <v>7970</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1759</v>
+        <v>-741</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -627,27 +627,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8141</v>
+        <v>7692</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8792</v>
+        <v>7970</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-651</v>
+        <v>-278</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -672,27 +672,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7637</v>
+        <v>7229</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>9383</v>
+        <v>7540</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1746</v>
+        <v>-311</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,27 +717,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7179</v>
+        <v>7692</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7474</v>
+        <v>7970</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-295</v>
+        <v>-278</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7179</v>
+        <v>7229</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7474</v>
+        <v>7540</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-295</v>
+        <v>-311</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7179</v>
+        <v>7229</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7474</v>
+        <v>7540</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-295</v>
+        <v>-311</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8365</v>
+        <v>16472</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>8792</v>
+        <v>17485</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-427</v>
+        <v>-1013</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -897,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7179</v>
+        <v>7229</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>8303</v>
+        <v>10222</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1124</v>
+        <v>-2993</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -928,9 +928,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-511</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7179</v>
+        <v>8451</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>8303</v>
+        <v>8869</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1124</v>
+        <v>-418</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Air Arabia Egypt E5-511</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7249</v>
+        <v>7228</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8303</v>
+        <v>7970</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1054</v>
+        <v>-742</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-511</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7179</v>
+        <v>7299</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>8303</v>
+        <v>7540</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1124</v>
+        <v>-241</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7179</v>
+        <v>7228</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8303</v>
+        <v>8388</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1124</v>
+        <v>-1160</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7179</v>
+        <v>7228</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>13189</v>
+        <v>8388</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-6010</v>
+        <v>-1160</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1153,12 +1153,147 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>16-MAY-26</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>SM-443</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-513</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7299</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>8388</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-1089</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>18-MAY-26</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>SM-443</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-511</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>7229</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>8388</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-1159</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>SM-443</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>7228</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>8388</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-1160</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9248</v>
+        <v>7651</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10083</v>
+        <v>7914</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-835</v>
+        <v>-263</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,27 +582,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7229</v>
+        <v>7651</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7970</v>
+        <v>7914</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-741</v>
+        <v>-263</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -627,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7692</v>
+        <v>7651</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7970</v>
+        <v>7914</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-278</v>
+        <v>-263</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -672,27 +672,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7229</v>
+        <v>7651</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7540</v>
+        <v>7914</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-311</v>
+        <v>-263</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7692</v>
+        <v>7651</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7970</v>
+        <v>7914</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-278</v>
+        <v>-263</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,27 +762,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7229</v>
+        <v>13672</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7540</v>
+        <v>14575</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-311</v>
+        <v>-903</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -807,27 +807,27 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7229</v>
+        <v>18702</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7540</v>
+        <v>20220</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-311</v>
+        <v>-1518</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-511</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>16472</v>
+        <v>7170</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>17485</v>
+        <v>10160</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1013</v>
+        <v>-2990</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -883,9 +883,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +907,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-511</t>
+          <t>Nile Air NP-143</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7229</v>
+        <v>8379</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10222</v>
+        <v>8818</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-2993</v>
+        <v>-439</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -928,9 +928,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8451</v>
+        <v>7240</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>8869</v>
+        <v>7488</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-418</v>
+        <v>-248</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7228</v>
+        <v>7170</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7970</v>
+        <v>8328</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-742</v>
+        <v>-1158</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7299</v>
+        <v>7240</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7540</v>
+        <v>8328</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-241</v>
+        <v>-1088</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7228</v>
+        <v>7170</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8388</v>
+        <v>8328</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1160</v>
+        <v>-1158</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1114,186 +1114,6 @@
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14-MAY-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7228</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>8388</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-1160</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>7299</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>8388</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-1089</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>18-MAY-26</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>7229</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>8388</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-1159</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>7228</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>8388</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-1160</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0EB5C2-3065-4F63-B737-427AA86475DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AAC10B-6012-4F36-9841-D2C8BD61DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -60,46 +60,67 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>05-FEB-26</t>
+    <t>14-FEB-26</t>
   </si>
   <si>
     <t>SM-443</t>
   </si>
   <si>
+    <t>Nile Air NP-243</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
     <t>Nile Air NP-143</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>11-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-447</t>
+    <t>21-FEB-26</t>
+  </si>
+  <si>
+    <t>28-FEB-26</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>30-MAR-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-511</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>04-APR-26</t>
   </si>
   <si>
     <t>Air Arabia Egypt E5-513</t>
   </si>
   <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-243</t>
-  </si>
-  <si>
-    <t>21-FEB-26</t>
-  </si>
-  <si>
-    <t>25-FEB-26</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
+    <t>11-MAY-26</t>
+  </si>
+  <si>
+    <t>16-MAY-26</t>
+  </si>
+  <si>
+    <t>18-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -126,7 +147,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +517,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +531,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -551,13 +581,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>9190</v>
+        <v>7651</v>
       </c>
       <c r="E2" s="2">
-        <v>10020</v>
+        <v>7914</v>
       </c>
       <c r="F2" s="2">
-        <v>-830</v>
+        <v>-263</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -580,19 +610,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2">
-        <v>7190</v>
+        <v>7651</v>
       </c>
       <c r="E3" s="2">
-        <v>7920</v>
+        <v>7914</v>
       </c>
       <c r="F3" s="2">
-        <v>-730</v>
+        <v>-263</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -612,22 +642,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>7644</v>
+        <v>7651</v>
       </c>
       <c r="E4" s="2">
-        <v>8335</v>
+        <v>7914</v>
       </c>
       <c r="F4" s="2">
-        <v>-691</v>
+        <v>-263</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -647,22 +677,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>7644</v>
+        <v>7651</v>
       </c>
       <c r="E5" s="2">
-        <v>7920</v>
+        <v>7914</v>
       </c>
       <c r="F5" s="2">
-        <v>-276</v>
+        <v>-263</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -682,22 +712,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>7190</v>
+        <v>7651</v>
       </c>
       <c r="E6" s="2">
-        <v>7920</v>
+        <v>7914</v>
       </c>
       <c r="F6" s="2">
-        <v>-730</v>
+        <v>-263</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -717,22 +747,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>7644</v>
+        <v>13672</v>
       </c>
       <c r="E7" s="2">
-        <v>7920</v>
+        <v>14575</v>
       </c>
       <c r="F7" s="2">
-        <v>-276</v>
+        <v>-903</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -752,36 +782,246 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18702</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20220</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1518</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7644</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7920</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-276</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="D9" s="2">
+        <v>7170</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10160</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-2990</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8379</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8818</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-439</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7240</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7488</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-248</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7170</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8328</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1158</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7240</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8328</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1088</v>
+      </c>
+      <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7170</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8328</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1158</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_CAI_AHB_threats.xlsx
+++ b/excel_routes/route_CAI_AHB_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -58,12 +58,6 @@
         <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +547,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-143</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7192</v>
+        <v>6842</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7521</v>
+        <v>8349</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-329</v>
+        <v>-1507</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,27 +582,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6837</v>
+        <v>6656</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7521</v>
+        <v>6804</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-684</v>
+        <v>-148</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -650,13 +641,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6837</v>
+        <v>6842</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7521</v>
+        <v>7513</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-684</v>
+        <v>-671</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,27 +672,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-965</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6652</v>
+        <v>6715</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7166</v>
+        <v>6804</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-514</v>
+        <v>-89</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,27 +717,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-965</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-243</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8407</v>
+        <v>6656</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8838</v>
+        <v>7158</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-431</v>
+        <v>-502</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,27 +762,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-447</t>
+          <t>SM-443</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-513</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>12949</v>
+        <v>6056</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>14574</v>
+        <v>6081</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1625</v>
+        <v>-25</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +821,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>13675</v>
+        <v>6056</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17385</v>
+        <v>6081</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-3710</v>
+        <v>-25</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,9 +838,9 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,13 +866,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>18677</v>
+        <v>8413</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>24210</v>
+        <v>8831</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-5533</v>
+        <v>-418</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,9 +883,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,27 +897,27 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-443</t>
+          <t>SM-447</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-511</t>
+          <t>Air Arabia Egypt E5-513</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>10582</v>
+        <v>12956</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10864</v>
+        <v>14545</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-282</v>
+        <v>-1589</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -965,13 +956,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>9230</v>
+        <v>13658</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>9433</v>
+        <v>17358</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-203</v>
+        <v>-3700</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +973,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-511</t>
+          <t>Nile Air NP-243</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7741</v>
+        <v>21413</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7939</v>
+        <v>24175</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-198</v>
+        <v>-2762</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,732 +1018,12 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>04-APR-26</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>8357</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-1397</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>11-APR-26</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>7166</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14-MAY-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>8357</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-1468</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>8357</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-1397</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>18-MAY-26</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>8357</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-1468</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>28-MAY-26</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>13257</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-6368</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>08-JUN-26</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>11-JUN-26</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>13-JUN-26</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-561</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>15-JUN-26</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>18-JUN-26</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>20-JUN-26</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-561</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>22-JUN-26</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>25-JUN-26</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>7939</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-1050</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>27-JUN-26</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-513</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>6960</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>7939</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-979</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>29-JUN-26</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>SM-443</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-511</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>6889</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>7521</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-632</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>
